--- a/3 Matrix.xlsx
+++ b/3 Matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="-17340" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="-34580" yWindow="-18160" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
   <si>
     <t>A</t>
   </si>
@@ -58,11 +58,26 @@
   <si>
     <t>Node</t>
   </si>
+  <si>
+    <t>Clustering coefficient</t>
+  </si>
+  <si>
+    <t>Neighbors</t>
+  </si>
+  <si>
+    <t>Edges</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -134,7 +149,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -142,8 +157,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,14 +180,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -324,11 +358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2078191024"/>
-        <c:axId val="-2078139808"/>
+        <c:axId val="2117987744"/>
+        <c:axId val="2116632752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078191024"/>
+        <c:axId val="2117987744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078139808"/>
+        <c:crossAx val="2116632752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -435,7 +469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078139808"/>
+        <c:axId val="2116632752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,7 +576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078191024"/>
+        <c:crossAx val="2117987744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1445,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="BH16" sqref="BH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1458,9 +1492,15 @@
     <col min="25" max="28" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="35" max="43" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="57" max="65" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -1533,8 +1573,23 @@
       <c r="AA1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="AX1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1608,8 +1663,24 @@
       <c r="AA2">
         <v>0</v>
       </c>
+      <c r="AX2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>2</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BB2" s="8">
+        <f>AZ2/BA2</f>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1683,8 +1754,24 @@
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AX3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>4</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>6</v>
+      </c>
+      <c r="BB3" s="8">
+        <f t="shared" ref="BB3:BB10" si="1">AZ3/BA3</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1758,8 +1845,24 @@
       <c r="AA4">
         <v>4</v>
       </c>
+      <c r="AX4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1833,8 +1936,24 @@
       <c r="AA5">
         <v>2</v>
       </c>
+      <c r="AX5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY5" s="7">
+        <v>4</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="7">
+        <v>6</v>
+      </c>
+      <c r="BB5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1908,8 +2027,24 @@
       <c r="AA6">
         <v>3</v>
       </c>
+      <c r="AX6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>4</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="7">
+        <v>6</v>
+      </c>
+      <c r="BB6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1977,8 +2112,24 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="AX7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2046,8 +2197,24 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="AX8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2115,8 +2282,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="AX9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY9" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2184,8 +2367,30 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="AX10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY10" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BB11" s="10">
+        <f>SUM(BB2:BB10)</f>
+        <v>1.3333333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -2246,8 +2451,12 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="BB12" s="9">
+        <f>BB11/9</f>
+        <v>0.14814814814814817</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2519,7 @@
       </c>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2372,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -2434,7 +2643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
